--- a/downloads/RSSB Risk Decomp 08.29.24.xlsx
+++ b/downloads/RSSB Risk Decomp 08.29.24.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/29/2024 11:25:03 AM</t>
+          <t>8/29/2024 1:00:05 PM</t>
         </is>
       </c>
     </row>

--- a/downloads/RSSB Risk Decomp 08.29.24.xlsx
+++ b/downloads/RSSB Risk Decomp 08.29.24.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/29/2024 1:42:53 PM</t>
+          <t>8/29/2024 2:04:33 PM</t>
         </is>
       </c>
     </row>
